--- a/作業區/系統分析與設計作業/作業2-資料塑模作業/資料塑模.xlsx
+++ b/作業區/系統分析與設計作業/作業2-資料塑模作業/資料塑模.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SchoolVM\作業區\系統分析與設計作業\作業2-資料塑模作業\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="3840" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="活動" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="活動類型" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="會員" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="權限" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="活動參加明細" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="地點" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="地點分類" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="好友" sheetId="8" r:id="rId11"/>
+    <sheet name="Activity活動" sheetId="1" r:id="rId1"/>
+    <sheet name="Activity_Type活動類型" sheetId="2" r:id="rId2"/>
+    <sheet name="Member會員" sheetId="3" r:id="rId3"/>
+    <sheet name="Right權限" sheetId="4" r:id="rId4"/>
+    <sheet name="Activity_detail活動參加明細" sheetId="5" r:id="rId5"/>
+    <sheet name="Place地點" sheetId="6" r:id="rId6"/>
+    <sheet name="Place_type地點分類" sheetId="7" r:id="rId7"/>
+    <sheet name="Friend好友" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="169">
   <si>
     <t>資料表：活動</t>
   </si>
@@ -411,31 +419,241 @@
   </si>
   <si>
     <t>F202207070002</t>
+  </si>
+  <si>
+    <t>[A][0-9]{5}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lace_id</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F.K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_Type_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_type_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_phone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_hours</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F.K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P.K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>來自member_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend_member1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_Type_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_date</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_time</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_Type_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_gender</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_birthday</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_detail_number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_type_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_type_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend_number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend_member2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -443,11 +661,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -461,72 +685,52 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -716,280 +920,298 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="11.57"/>
-    <col customWidth="1" min="3" max="4" width="9.57"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="7" width="11.57"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
-        <v>44741.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1130.0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="3">
+        <v>44741</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1130</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4">
-        <v>44742.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1300.0</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="3">
+        <v>44742</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1300</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4">
-        <v>44742.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1400.0</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="3">
+        <v>44742</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="G10" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2">
+        <v>50</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="5">
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="6">
-        <v>44748.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1980,137 +2202,144 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A7:G7"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="9.57"/>
-    <col customWidth="1" min="4" max="4" width="5.29"/>
-    <col customWidth="1" min="5" max="5" width="10.0"/>
-    <col customWidth="1" min="6" max="6" width="5.29"/>
-    <col customWidth="1" min="7" max="7" width="8.29"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+      <c r="D10" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3101,342 +3330,356 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:G7"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="9.57"/>
-    <col customWidth="1" min="4" max="4" width="22.14"/>
-    <col customWidth="1" min="5" max="5" width="23.43"/>
-    <col customWidth="1" min="6" max="6" width="5.29"/>
-    <col customWidth="1" min="7" max="7" width="9.14"/>
-    <col customWidth="1" min="8" max="8" width="27.43"/>
-    <col customWidth="1" min="9" max="9" width="9.57"/>
-    <col customWidth="1" min="10" max="10" width="12.71"/>
-    <col customWidth="1" min="11" max="28" width="8.71"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>123.0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="1">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="6">
-        <v>35252.0</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="5">
+        <v>35252</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2">
-        <v>456.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>456.0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="1">
+        <v>456</v>
+      </c>
+      <c r="C4" s="1">
+        <v>456</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="6">
-        <v>35251.0</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="5">
+        <v>35251</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="2">
-        <v>789.0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>789.0</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="1">
+        <v>789</v>
+      </c>
+      <c r="C5" s="1">
+        <v>789</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="6">
-        <v>35250.0</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="5">
+        <v>35250</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="3">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="3">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="D12" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="3">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="D17" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4411,145 +4654,154 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A8:G8"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.57"/>
-    <col customWidth="1" min="2" max="2" width="15.86"/>
-    <col customWidth="1" min="3" max="3" width="9.57"/>
-    <col customWidth="1" min="4" max="4" width="5.29"/>
-    <col customWidth="1" min="5" max="5" width="9.57"/>
-    <col customWidth="1" min="6" max="6" width="5.29"/>
-    <col customWidth="1" min="7" max="7" width="8.29"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3">
-        <v>50.0</v>
+      <c r="D13" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4557,215 +4809,224 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:G10"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.57"/>
-    <col customWidth="1" min="2" max="3" width="9.57"/>
-    <col customWidth="1" min="4" max="4" width="5.29"/>
-    <col customWidth="1" min="5" max="5" width="35.86"/>
-    <col customWidth="1" min="6" max="6" width="10.0"/>
-    <col customWidth="1" min="7" max="7" width="8.29"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5760,245 +6021,255 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A12:G12"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A13:A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.71"/>
-    <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="11.57"/>
-    <col customWidth="1" min="4" max="4" width="27.43"/>
-    <col customWidth="1" min="5" max="5" width="12.43"/>
-    <col customWidth="1" min="6" max="6" width="9.57"/>
-    <col customWidth="1" min="7" max="7" width="8.29"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="2">
         <v>30</v>
       </c>
-      <c r="D14" s="3">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="3">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1"/>
+      <c r="F15" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6989,145 +7260,152 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:G8"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="13.71"/>
-    <col customWidth="1" min="3" max="3" width="9.57"/>
-    <col customWidth="1" min="4" max="4" width="5.29"/>
-    <col customWidth="1" min="5" max="5" width="9.57"/>
-    <col customWidth="1" min="6" max="6" width="9.86"/>
-    <col customWidth="1" min="7" max="7" width="8.29"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="G10" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+      <c r="D11" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -8118,169 +8396,182 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:G8"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.29"/>
-    <col customWidth="1" min="2" max="3" width="9.57"/>
-    <col customWidth="1" min="4" max="4" width="5.29"/>
-    <col customWidth="1" min="5" max="5" width="35.86"/>
-    <col customWidth="1" min="6" max="6" width="10.0"/>
-    <col customWidth="1" min="7" max="7" width="8.29"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -9271,9 +9562,8 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:G7"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/作業區/系統分析與設計作業/作業2-資料塑模作業/資料塑模.xlsx
+++ b/作業區/系統分析與設計作業/作業2-資料塑模作業/資料塑模.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="3840" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="3840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Activity活動" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="176">
   <si>
     <t>資料表：活動</t>
   </si>
@@ -43,9 +43,6 @@
     <t>活動日期</t>
   </si>
   <si>
-    <t>活動時間</t>
-  </si>
-  <si>
     <t>地點編號</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>西元年/月/日</t>
-  </si>
-  <si>
     <t>時間格式</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>王大明</t>
   </si>
   <si>
-    <t>男</t>
-  </si>
-  <si>
     <t>高雄市前鎮區凱旋四路105號</t>
   </si>
   <si>
@@ -367,9 +358,6 @@
     <t>07-1234567</t>
   </si>
   <si>
-    <t>24H</t>
-  </si>
-  <si>
     <t>分類編號</t>
   </si>
   <si>
@@ -389,9 +377,6 @@
   </si>
   <si>
     <t>地點分類名稱</t>
-  </si>
-  <si>
-    <t>運動</t>
   </si>
   <si>
     <t>E04</t>
@@ -473,10 +458,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>place_hours</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>F.K</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -498,6 +479,78 @@
   </si>
   <si>
     <t>activity_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_Type_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_gender</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_birthday</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_detail_number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_type_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_type_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend_number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>friend_member2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -512,13 +565,74 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_date</t>
+      <t>_datetime</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>日期+時間</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYY-MM-DD HH:MI:SS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>activity</t>
+      <t>E0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>運動</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始時間</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束時間</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0800</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -528,84 +642,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_time</t>
+      <t>930</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>member_id</t>
+    <t>0000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>activity_Type_name</t>
+    <t>2359</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>char</t>
+    <t>place_hours_start</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>member_password</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_id_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_gender</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_birthday</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>right_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_detail_number</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>place_address</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>place_type_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>place_type_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>friend_number</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>friend_member2</t>
+    <t>place_hours_end</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -699,10 +753,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -712,6 +762,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -927,33 +987,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="26" width="8.7109375" customWidth="1"/>
+    <col min="8" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -968,169 +1029,157 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3">
+        <v>44741.479166666664</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
-        <v>44741</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1130</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="3">
+        <v>44742.627083333333</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
-        <v>44742</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1300</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="3">
+        <v>44742.770833333336</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3">
-        <v>44742</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>132</v>
+      <c r="A9" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>131</v>
+      <c r="E9" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>146</v>
+      <c r="A10" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>134</v>
+        <v>28</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>147</v>
+      <c r="A11" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>50</v>
@@ -1138,79 +1187,63 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>148</v>
+      <c r="A12" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="5">
-        <v>44748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="2">
-        <v>1300</v>
-      </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>133</v>
+      <c r="A14" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -2196,7 +2229,6 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -2212,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2228,107 +2260,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>135</v>
+      <c r="A9" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>50</v>
@@ -3340,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="A3:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3359,52 +3391,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="A1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>123</v>
@@ -3413,28 +3445,28 @@
         <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
       </c>
       <c r="G3" s="5">
         <v>35252</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>456</v>
@@ -3443,28 +3475,28 @@
         <v>456</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
       </c>
       <c r="G4" s="5">
         <v>35251</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1">
         <v>789</v>
@@ -3473,197 +3505,200 @@
         <v>789</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
       </c>
       <c r="G5" s="5">
         <v>35250</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>154</v>
+      <c r="A11" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>153</v>
+      <c r="A12" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>155</v>
+      <c r="A13" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>156</v>
+      <c r="A14" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>157</v>
+      <c r="A15" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>136</v>
+      <c r="A18" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>152</v>
+        <v>50</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1"/>
@@ -4667,8 +4702,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4683,122 +4718,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10" t="s">
-        <v>159</v>
+      <c r="A13" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>50</v>
@@ -4834,200 +4869,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="A1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="11" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>132</v>
+      <c r="A15" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2">
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>150</v>
+      <c r="A16" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -6029,247 +6064,314 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1001"/>
+  <dimension ref="A1:T1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A13:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="26" width="8.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="F5" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>138</v>
+        <v>27</v>
+      </c>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>161</v>
+        <v>111</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>162</v>
+        <v>95</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="D12" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>163</v>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>140</v>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>141</v>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>164</v>
+        <v>97</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1"/>
+        <v>113</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -7271,7 +7373,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7287,115 +7389,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>143</v>
+        <v>111</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>166</v>
+      <c r="A11" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>50</v>
@@ -8398,7 +8507,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8407,7 +8516,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8422,149 +8531,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="A1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>145</v>
+      <c r="A10" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>144</v>
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>168</v>
+      <c r="A11" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>144</v>
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1"/>

--- a/作業區/系統分析與設計作業/作業2-資料塑模作業/資料塑模.xlsx
+++ b/作業區/系統分析與設計作業/作業2-資料塑模作業/資料塑模.xlsx
@@ -9,27 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="3840" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="3840" tabRatio="719" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Activity活動" sheetId="1" r:id="rId1"/>
-    <sheet name="Activity_Type活動類型" sheetId="2" r:id="rId2"/>
+    <sheet name="Activity_type活動類型" sheetId="2" r:id="rId2"/>
     <sheet name="Member會員" sheetId="3" r:id="rId3"/>
     <sheet name="Right權限" sheetId="4" r:id="rId4"/>
     <sheet name="Activity_detail活動參加明細" sheetId="5" r:id="rId5"/>
     <sheet name="Place地點" sheetId="6" r:id="rId6"/>
-    <sheet name="Place_type地點分類" sheetId="7" r:id="rId7"/>
-    <sheet name="Friend好友" sheetId="8" r:id="rId8"/>
+    <sheet name="Place_off_day地點公休日" sheetId="9" r:id="rId7"/>
+    <sheet name="Place_type地點分類" sheetId="7" r:id="rId8"/>
+    <sheet name="Friend好友" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="176">
-  <si>
-    <t>資料表：活動</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="239">
   <si>
     <t>活動編號</t>
   </si>
@@ -58,9 +56,6 @@
     <t>讀書會</t>
   </si>
   <si>
-    <t>S01</t>
-  </si>
-  <si>
     <t>P00001</t>
   </si>
   <si>
@@ -76,9 +71,6 @@
     <t>桌遊</t>
   </si>
   <si>
-    <t>S02</t>
-  </si>
-  <si>
     <t>P00002</t>
   </si>
   <si>
@@ -124,18 +116,12 @@
     <t>時間格式</t>
   </si>
   <si>
-    <t>[S][0-9]{2}</t>
-  </si>
-  <si>
     <t>F.K</t>
   </si>
   <si>
     <t>[P][0-9]{5}</t>
   </si>
   <si>
-    <t>資料表：活動類型</t>
-  </si>
-  <si>
     <t>類型名稱</t>
   </si>
   <si>
@@ -151,9 +137,6 @@
     <t>飲食</t>
   </si>
   <si>
-    <t>資料表：會員</t>
-  </si>
-  <si>
     <t>會員編號</t>
   </si>
   <si>
@@ -181,12 +164,6 @@
     <t>權限編號</t>
   </si>
   <si>
-    <t>來我家看貓貓後空翻</t>
-  </si>
-  <si>
-    <t>王大明</t>
-  </si>
-  <si>
     <t>高雄市前鎮區凱旋四路105號</t>
   </si>
   <si>
@@ -235,9 +212,6 @@
     <t>[A-Z]</t>
   </si>
   <si>
-    <t>資料表：權限</t>
-  </si>
-  <si>
     <t>權限名稱</t>
   </si>
   <si>
@@ -265,9 +239,6 @@
     <t>被封鎖者</t>
   </si>
   <si>
-    <t>資料表：活動參加明細</t>
-  </si>
-  <si>
     <t>流水號</t>
   </si>
   <si>
@@ -304,9 +275,6 @@
     <t>第一字元為大寫P</t>
   </si>
   <si>
-    <t>資料表：地點</t>
-  </si>
-  <si>
     <t>活動地點編號</t>
   </si>
   <si>
@@ -328,9 +296,6 @@
     <t>好喝哦咖啡</t>
   </si>
   <si>
-    <t>0912-456789</t>
-  </si>
-  <si>
     <t>E02</t>
   </si>
   <si>
@@ -340,12 +305,6 @@
     <t>台北市前鎮區凱旋四路105號</t>
   </si>
   <si>
-    <t>02-12345678</t>
-  </si>
-  <si>
-    <t>S03</t>
-  </si>
-  <si>
     <t>E03</t>
   </si>
   <si>
@@ -355,9 +314,6 @@
     <t>高雄</t>
   </si>
   <si>
-    <t>07-1234567</t>
-  </si>
-  <si>
     <t>分類編號</t>
   </si>
   <si>
@@ -370,9 +326,6 @@
     <t>可為null</t>
   </si>
   <si>
-    <t>資料表：地點分類</t>
-  </si>
-  <si>
     <t>地點分類編號</t>
   </si>
   <si>
@@ -388,48 +341,16 @@
     <t>分類名稱</t>
   </si>
   <si>
-    <t>資料表：好友</t>
-  </si>
-  <si>
     <t>使用者</t>
   </si>
   <si>
     <t>好友</t>
   </si>
   <si>
-    <t>F202207060001</t>
-  </si>
-  <si>
-    <t>F202207070001</t>
-  </si>
-  <si>
-    <t>F202207070002</t>
-  </si>
-  <si>
-    <t>[A][0-9]{5}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>activity_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lace_id</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>F.K</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -446,10 +367,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>place_type_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>member_address</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -471,10 +388,6 @@
   </si>
   <si>
     <t>friend_member1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_Type_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -627,12 +540,186 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0800</t>
+    <t>place_hours_start</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_hours_end</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公休日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_off_day</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公休日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多值屬性，只能是{一,二,三,四,五,六,日}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F.K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表：Activity活動</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表：Activity_Type活動類型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表：Activity_Type活動類型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表：Member會員</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表：Right權限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表：Right權限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表：Activity_detail活動參加明細</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表：Place地點</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表：Place_type地點分類</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表：Place_type地點分類</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表：Friend好友</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F202207070002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F202207070003</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>1</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手機號碼</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手機號碼</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>電子信箱</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912345678</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912345670</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912345679</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwe123456@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd123456@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxc123456@gmail.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>必須含有</t>
     </r>
     <r>
       <rPr>
@@ -642,24 +729,627 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>930</t>
+      <t>@</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0000</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2359</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>place_hours_start</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>place_hours_end</t>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[9][0-9]{8}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_cellphone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_email</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>來我家看貓貓後空翻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王大明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A-Za-z0-9]{6,30}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123456789</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123456789</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123456789</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123456789</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123456789</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A00003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F202207060001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[A][0-9]{5}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[C][0-9]{2}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_type_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[S][0-9]{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地點編號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S00002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S00003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_type_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912456789</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0212345678</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>071234567</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>資料表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Place_off_day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地點公休日</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>資料表：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>活動</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:00:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:30:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:59:59</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自動編號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_off_day_number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>place_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P.K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[S][0-9]{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P][0-9]{5}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +1408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -728,16 +1418,53 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,33 +1472,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -987,264 +1730,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="15">
+        <v>44741.479166666664</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="15">
+        <v>44742.627083333333</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15">
+        <v>44742.770833333336</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44741.479166666664</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>44742.627083333333</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>44742.770833333336</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="D10" s="13">
+        <v>3</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="13">
+        <v>50</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="13">
         <v>6</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E13" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2">
-        <v>50</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="13">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
+      <c r="E14" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2231,8 +2993,8 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -2245,126 +3007,163 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B3:B5"/>
+      <selection activeCell="B5" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="D9" s="13">
+        <v>3</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="A10" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="13">
         <v>50</v>
       </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="12" spans="1:7" ht="15.75" customHeight="1"/>
@@ -3370,351 +4169,445 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1001"/>
+  <dimension ref="A1:L1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="A3:I5"/>
+      <selection activeCell="K5" sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="28" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="9" width="9.7109375" style="9" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="30" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="G2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="K2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+      <c r="G3" s="22">
+        <v>35252</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="K3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="E4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="22">
+        <v>35251</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="22">
+        <v>35250</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13">
+        <v>6</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="13">
+        <v>30</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="13">
+        <v>30</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A13" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="1">
-        <v>123</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="B13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13">
+        <v>50</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="13">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="14">
+        <v>10</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="14">
+        <v>50</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="13">
+        <v>100</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="13">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
-        <v>35252</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1">
-        <v>456</v>
-      </c>
-      <c r="C4" s="1">
-        <v>456</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>35251</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="1">
-        <v>789</v>
-      </c>
-      <c r="C5" s="1">
-        <v>789</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>35250</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4684,14 +5577,16 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A8:G8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4703,141 +5598,145 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B7"/>
+      <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13">
         <v>50</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2">
-        <v>50</v>
-      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4854,215 +5753,216 @@
   <dimension ref="A1:G1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="A1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
+      <c r="A2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>59</v>
+      <c r="C9" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="11" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="13">
+        <v>13</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="D15" s="13">
+        <v>6</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="G15" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="13">
         <v>6</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="E16" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>33</v>
+      <c r="F16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -6066,8 +6966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6075,7 +6975,7 @@
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.7109375" customWidth="1"/>
@@ -6084,293 +6984,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="17">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="E5" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="8"/>
+      <c r="A8" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="13">
+        <v>6</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="D11" s="13">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>136</v>
+      <c r="E11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="A12" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="13">
         <v>50</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="A13" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13">
         <v>100</v>
       </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
-        <v>30</v>
-      </c>
+      <c r="B14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="13">
+        <v>10</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="A15" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:20" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -7370,10 +8284,220 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:G9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7389,126 +8513,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A7" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="13">
+        <v>3</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="A11" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="13">
         <v>50</v>
       </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="13" spans="1:7" ht="15.75" customHeight="1"/>
@@ -8511,12 +9639,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8531,149 +9659,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="A1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>122</v>
+      <c r="A2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
+      <c r="A3" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+      <c r="A4" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
+      <c r="A5" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="D9" s="13">
+        <v>13</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
+      <c r="A10" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>33</v>
+      <c r="A11" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1"/>

--- a/作業區/系統分析與設計作業/作業2-資料塑模作業/資料塑模.xlsx
+++ b/作業區/系統分析與設計作業/作業2-資料塑模作業/資料塑模.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="3840" tabRatio="719" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="3840" tabRatio="719" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Activity活動" sheetId="1" r:id="rId1"/>
@@ -1483,10 +1483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1508,13 +1504,17 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1733,7 +1733,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1748,260 +1748,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>44741.479166666664</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>44742.627083333333</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>44742.770833333336</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>6</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="17" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>50</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>6</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>6</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:B5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3022,148 +3022,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>3</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>50</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="12" spans="1:7" ht="15.75" customHeight="1"/>
@@ -4171,13 +4171,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="A1:K5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="9" width="9.7109375" style="9" customWidth="1"/>
@@ -4187,161 +4187,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>44</v>
       </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <v>35252</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>46</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>1</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <v>35251</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>50</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <v>35250</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>50</v>
       </c>
       <c r="L5" s="2"/>
@@ -4349,245 +4349,245 @@
     <row r="6" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>6</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>30</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>30</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>50</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>20</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>10</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>50</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>100</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <v>1</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="11" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="2"/>
@@ -5613,130 +5613,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>50</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5768,200 +5768,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="11" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>13</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>6</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6984,107 +6984,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>228</v>
       </c>
       <c r="N4" s="4"/>
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>229</v>
       </c>
       <c r="N5" s="5"/>
@@ -7104,15 +7104,15 @@
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="6"/>
@@ -7123,25 +7123,25 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="M9" s="4"/>
@@ -7154,137 +7154,137 @@
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>6</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>3</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>50</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>100</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="11">
         <v>10</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:20" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -8299,24 +8299,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>148</v>
       </c>
       <c r="D2" s="1"/>
@@ -8326,13 +8326,13 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="14">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D3" s="1"/>
@@ -8342,69 +8342,69 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="4"/>
@@ -8413,21 +8413,21 @@
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="15" t="s">
         <v>236</v>
       </c>
       <c r="N11" s="4"/>
@@ -8436,47 +8436,47 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>6</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="15" t="s">
         <v>158</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" s="5"/>
@@ -8513,130 +8513,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>3</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="15" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>50</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="13" spans="1:7" ht="15.75" customHeight="1"/>
@@ -9643,7 +9643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
@@ -9659,151 +9659,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>13</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>29</v>
       </c>
     </row>

--- a/作業區/系統分析與設計作業/作業2-資料塑模作業/資料塑模.xlsx
+++ b/作業區/系統分析與設計作業/作業2-資料塑模作業/資料塑模.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="247">
   <si>
     <t>活動編號</t>
   </si>
@@ -98,15 +98,9 @@
     <t>char</t>
   </si>
   <si>
-    <t>[A][0-9]{5}</t>
-  </si>
-  <si>
     <t>P.K</t>
   </si>
   <si>
-    <t>[C][0-9]{2}</t>
-  </si>
-  <si>
     <t>nvarchar</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>F.K</t>
   </si>
   <si>
-    <t>[P][0-9]{5}</t>
-  </si>
-  <si>
     <t>類型名稱</t>
   </si>
   <si>
@@ -209,9 +200,6 @@
     <t>地址</t>
   </si>
   <si>
-    <t>[A-Z]</t>
-  </si>
-  <si>
     <t>權限名稱</t>
   </si>
   <si>
@@ -245,9 +233,6 @@
     <t>參加者</t>
   </si>
   <si>
-    <t>A202207060001</t>
-  </si>
-  <si>
     <t>A202207060002</t>
   </si>
   <si>
@@ -269,12 +254,6 @@
     <t>第一字元為大寫A，依照日期跑流水號</t>
   </si>
   <si>
-    <t>第一字元為大寫A</t>
-  </si>
-  <si>
-    <t>第一字元為大寫P</t>
-  </si>
-  <si>
     <t>活動地點編號</t>
   </si>
   <si>
@@ -315,9 +294,6 @@
   </si>
   <si>
     <t>分類編號</t>
-  </si>
-  <si>
-    <t>[E][0-9]{2}</t>
   </si>
   <si>
     <t>連絡電話</t>
@@ -734,41 +710,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[9][0-9]{8}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>member_cellphone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -798,10 +739,6 @@
   </si>
   <si>
     <t>王大明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[A-Za-z0-9]{6,30}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -898,14 +835,6 @@
   </si>
   <si>
     <t>P00001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[A][0-9]{5}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[C][0-9]{2}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -984,31 +913,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>3</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[S][0-9]{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1324,18 +1228,36 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>A00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A202207060001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A202207060001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束時間</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[A][0-9]{5}$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[C][0-9]{2}$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>[S][0-9]{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
+      <t>^[S][0-9]{5</t>
     </r>
     <r>
       <rPr>
@@ -1346,10 +1268,211 @@
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[P][0-9]{5}</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[P][0-9]{5}$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>^[C][0-9]{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>^[P][0-9]{5}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[A-Za-z0-9]{6,30}$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[A-Za-z0-9]{6,30}$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>^[0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[9][0-9]{8}$</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>^[A-Z]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[A][0-9]{12}$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[A][0-9]{5}$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[P][0-9]{5}$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>^[S][0-9]{5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>^[E][0-9]{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>^[S][0-9]{5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>^[P][0-9]{5}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>^[E][0-9]{2}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1733,7 +1856,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1741,7 +1864,7 @@
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="25" width="8.7109375" customWidth="1"/>
@@ -1749,7 +1872,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1781,7 +1904,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -1793,7 +1916,7 @@
         <v>44741.479166666664</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>9</v>
@@ -1814,7 +1937,7 @@
         <v>44742.627083333333</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>9</v>
@@ -1823,7 +1946,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -1835,7 +1958,7 @@
         <v>44742.770833333336</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>14</v>
@@ -1853,7 +1976,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -1887,7 +2010,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>0</v>
@@ -1899,16 +2022,16 @@
         <v>6</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>1</v>
@@ -1920,22 +2043,22 @@
         <v>3</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="11">
         <v>50</v>
@@ -1946,29 +2069,29 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="16" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>22</v>
@@ -1977,16 +2100,16 @@
         <v>6</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>5</v>
@@ -1998,11 +2121,11 @@
         <v>6</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1"/>
@@ -3007,7 +3130,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3015,7 +3138,7 @@
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="26" width="8.7109375" customWidth="1"/>
@@ -3023,7 +3146,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="12"/>
@@ -3037,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -3047,10 +3170,10 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -3063,7 +3186,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -3073,10 +3196,10 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -3095,7 +3218,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -3129,7 +3252,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>1</v>
@@ -3140,23 +3263,23 @@
       <c r="D9" s="11">
         <v>3</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>25</v>
+      <c r="E9" s="15" t="s">
+        <v>233</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="11">
         <v>50</v>
@@ -4171,15 +4294,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="9" width="9.7109375" style="9" customWidth="1"/>
     <col min="10" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
@@ -4188,7 +4313,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -4204,55 +4329,55 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F3" s="11">
         <v>1</v>
@@ -4261,16 +4386,16 @@
         <v>35252</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -4279,16 +4404,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="11">
         <v>1</v>
@@ -4297,34 +4422,34 @@
         <v>35251</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" s="11">
         <v>1</v>
@@ -4333,16 +4458,16 @@
         <v>35250</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2"/>
     </row>
@@ -4350,7 +4475,7 @@
     <row r="7" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -4386,10 +4511,10 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>22</v>
@@ -4397,63 +4522,63 @@
       <c r="D10" s="11">
         <v>6</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>30</v>
+      <c r="E10" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" s="11">
         <v>30</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11">
         <v>30</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="19" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="11">
         <v>50</v>
@@ -4464,13 +4589,13 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="11">
         <v>20</v>
@@ -4481,87 +4606,87 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="16" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D17" s="12">
         <v>10</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D18" s="12">
         <v>50</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D19" s="11">
         <v>100</v>
@@ -4572,23 +4697,23 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D20" s="11">
         <v>1</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>60</v>
+      <c r="E20" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -5598,7 +5723,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5614,61 +5739,61 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="28" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="28" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -5702,10 +5827,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="16" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>22</v>
@@ -5713,23 +5838,23 @@
       <c r="D12" s="11">
         <v>1</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>60</v>
+      <c r="E12" s="15" t="s">
+        <v>238</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="11">
         <v>50</v>
@@ -5753,7 +5878,7 @@
   <dimension ref="A1:G1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="A1:C9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5761,7 +5886,7 @@
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="26" width="8.7109375" customWidth="1"/>
@@ -5769,25 +5894,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>6</v>
@@ -5798,7 +5923,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>6</v>
@@ -5809,18 +5934,18 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>10</v>
@@ -5831,7 +5956,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>10</v>
@@ -5842,7 +5967,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>11</v>
@@ -5853,20 +5978,20 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="11" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -5900,10 +6025,10 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>22</v>
@@ -5911,17 +6036,19 @@
       <c r="D14" s="11">
         <v>13</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="12"/>
+      <c r="E14" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>227</v>
+      </c>
       <c r="G14" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>0</v>
@@ -5932,22 +6059,22 @@
       <c r="D15" s="11">
         <v>6</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>23</v>
+      <c r="E15" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>22</v>
@@ -5955,14 +6082,14 @@
       <c r="D16" s="11">
         <v>6</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>30</v>
+      <c r="E16" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -6958,7 +7085,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6967,7 +7094,7 @@
   <dimension ref="A1:T1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6985,7 +7112,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6996,96 +7123,96 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="N4" s="4"/>
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -7105,7 +7232,7 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -7155,32 +7282,32 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D10" s="11">
         <v>6</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>22</v>
@@ -7188,23 +7315,23 @@
       <c r="D11" s="11">
         <v>3</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>96</v>
+      <c r="E11" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D12" s="11">
         <v>50</v>
@@ -7216,13 +7343,13 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
       <c r="A13" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="11">
         <v>100</v>
@@ -7233,13 +7360,13 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
       <c r="A14" s="16" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D14" s="11">
         <v>10</v>
@@ -7250,38 +7377,38 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:20" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>86</v>
+        <v>139</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="12"/>
@@ -8286,21 +8413,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -8311,13 +8438,13 @@
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -8330,10 +8457,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -8346,10 +8473,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -8357,10 +8484,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -8368,15 +8495,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="28" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -8414,21 +8541,21 @@
     </row>
     <row r="11" spans="1:17" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="15" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="15" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="5"/>
@@ -8437,10 +8564,10 @@
     </row>
     <row r="12" spans="1:17" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="16" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>22</v>
@@ -8449,32 +8576,32 @@
         <v>6</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G13" s="12"/>
     </row>
@@ -8497,7 +8624,7 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:B7"/>
+      <selection activeCell="K29" sqref="K28:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8507,68 +8634,68 @@
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -8602,10 +8729,10 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>22</v>
@@ -8614,22 +8741,22 @@
         <v>3</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="11" t="s">
-        <v>96</v>
+      <c r="F10" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="11">
         <v>50</v>
@@ -9643,8 +9770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9653,32 +9780,32 @@
     <col min="2" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>9</v>
@@ -9689,7 +9816,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="23" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>14</v>
@@ -9700,19 +9827,19 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="23" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
@@ -9746,10 +9873,10 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>22</v>
@@ -9758,53 +9885,53 @@
         <v>13</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>30</v>
+        <v>107</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>30</v>
+        <v>107</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1"/>
